--- a/historico_manutencao.xlsx
+++ b/historico_manutencao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="83">
   <si>
     <t>Usuário</t>
   </si>
@@ -61,6 +61,9 @@
     <t>Lari</t>
   </si>
   <si>
+    <t>oi</t>
+  </si>
+  <si>
     <t>2025-04-08</t>
   </si>
   <si>
@@ -85,6 +88,15 @@
     <t>2025-04-28</t>
   </si>
   <si>
+    <t>2025-05-16</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-17</t>
+  </si>
+  <si>
     <t>Civic</t>
   </si>
   <si>
@@ -100,6 +112,12 @@
     <t>Corsa 2011</t>
   </si>
   <si>
+    <t>Onix Plus</t>
+  </si>
+  <si>
+    <t>Toro</t>
+  </si>
+  <si>
     <t>Sim</t>
   </si>
   <si>
@@ -136,6 +154,18 @@
     <t>28/04/2026</t>
   </si>
   <si>
+    <t>2025-05-22</t>
+  </si>
+  <si>
+    <t>15/05/2026</t>
+  </si>
+  <si>
+    <t>16/05/2026</t>
+  </si>
+  <si>
+    <t>17/05/2026</t>
+  </si>
+  <si>
     <t>Ar Condicionado</t>
   </si>
   <si>
@@ -175,9 +205,30 @@
     <t>Troca das velas (Flex)</t>
   </si>
   <si>
+    <t>roda</t>
+  </si>
+  <si>
+    <t>Troca de óleo do motor e filtro</t>
+  </si>
+  <si>
+    <t>Troca das velas de ignição</t>
+  </si>
+  <si>
+    <t>Substituição do fluido de freio</t>
+  </si>
+  <si>
+    <t>Troca do filtro de ar</t>
+  </si>
+  <si>
     <t>filtro</t>
   </si>
   <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
     <t>Giulinano</t>
   </si>
   <si>
@@ -203,6 +254,15 @@
   </si>
   <si>
     <t>Aos 48.000 km</t>
+  </si>
+  <si>
+    <t>sei la</t>
+  </si>
+  <si>
+    <t>Aos 40.000 km</t>
+  </si>
+  <si>
+    <t>A cada 15.000 km</t>
   </si>
 </sst>
 </file>
@@ -560,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,34 +669,34 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I2">
         <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -644,25 +704,25 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -670,25 +730,25 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -696,25 +756,25 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -722,25 +782,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -748,25 +808,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -774,25 +834,25 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -800,25 +860,25 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -826,25 +886,25 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -852,25 +912,25 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -878,25 +938,25 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -904,25 +964,25 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K13" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -930,25 +990,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -956,25 +1016,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -982,25 +1042,170 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17">
+        <v>500</v>
+      </c>
+      <c r="J17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18">
+        <v>900</v>
+      </c>
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
         <v>31</v>
       </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" t="s">
-        <v>58</v>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
